--- a/pcb/BOM/BOM_SmartSwitch.xlsx
+++ b/pcb/BOM/BOM_SmartSwitch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\SmartSwitch\pcb\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E2868A-8C13-4BF7-8BE8-51C03352E90B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043B2EE4-6284-404F-A6FF-7C837D5B6D3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEE4390B-974B-40B4-A16B-2C2F562EAE7A}"/>
   </bookViews>
@@ -168,33 +168,9 @@
     <t>1N4148W</t>
   </si>
   <si>
-    <t>TL750L05CKCS</t>
-  </si>
-  <si>
-    <t>IC REG LINEAR 5V 150MA TO220-3</t>
-  </si>
-  <si>
     <t>ERJ-3EKF3300V</t>
   </si>
   <si>
-    <t>5111F5</t>
-  </si>
-  <si>
-    <t>LED GREEN 5/32" HOLE PANEL MOUNT</t>
-  </si>
-  <si>
-    <t>5111F1</t>
-  </si>
-  <si>
-    <t>LED RED 5/32" HOLE PANEL MOUNT</t>
-  </si>
-  <si>
-    <t>RRA1GC1100</t>
-  </si>
-  <si>
-    <t>SWITCH ROCKER DPDT 15A 125V</t>
-  </si>
-  <si>
     <t>PANEL MOUNT</t>
   </si>
   <si>
@@ -208,6 +184,30 @@
   </si>
   <si>
     <t>796949-2</t>
+  </si>
+  <si>
+    <t>PM5GT</t>
+  </si>
+  <si>
+    <t>PNL MNT W/ WIRE 568NM 40MCD GRN</t>
+  </si>
+  <si>
+    <t>PM5YT</t>
+  </si>
+  <si>
+    <t>PNL MNT W/ WIRE 590NM 40MCD YLW</t>
+  </si>
+  <si>
+    <t>GRS-4022-1600</t>
+  </si>
+  <si>
+    <t>SWITCH ROCKER DPDT 16A 125V</t>
+  </si>
+  <si>
+    <t>Linear voltage regulator [ST micro] LM7805CV Linear voltage regulator 2A THT</t>
+  </si>
+  <si>
+    <t>LM7805CT/NOPB</t>
   </si>
 </sst>
 </file>
@@ -593,15 +593,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74CCD21-E8D4-4A68-A154-31AE7F41C2DF}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="5" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -623,16 +625,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3">
         <v>4</v>
@@ -785,7 +787,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
@@ -827,16 +829,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -861,16 +863,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -878,16 +880,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -895,16 +897,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>

--- a/pcb/BOM/BOM_SmartSwitch.xlsx
+++ b/pcb/BOM/BOM_SmartSwitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\SmartSwitch\pcb\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043B2EE4-6284-404F-A6FF-7C837D5B6D3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F37C99D-E21E-4A4F-87A9-1069EF36EF45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEE4390B-974B-40B4-A16B-2C2F562EAE7A}"/>
+    <workbookView xWindow="17895" yWindow="4230" windowWidth="21600" windowHeight="11385" xr2:uid="{CEE4390B-974B-40B4-A16B-2C2F562EAE7A}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-SmartSwitch" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Comment</t>
   </si>
@@ -60,24 +60,6 @@
     <t>ESK105M050AC3AA</t>
   </si>
   <si>
-    <t>RESET</t>
-  </si>
-  <si>
-    <t>LED Uni-Color Red 645nm 2-Pin T-1 3/4</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>HLMP-D150</t>
-  </si>
-  <si>
-    <t>SET</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
     <t>3JQ 500-R</t>
   </si>
   <si>
@@ -114,9 +96,6 @@
     <t>PS1</t>
   </si>
   <si>
-    <t>DMN65D87</t>
-  </si>
-  <si>
     <t>Trans MOSFET N-CH 60V 0.31A Automotive 3-Pin SOT-23 T/R</t>
   </si>
   <si>
@@ -156,18 +135,12 @@
     <t>U1</t>
   </si>
   <si>
-    <t>1N4148</t>
-  </si>
-  <si>
     <t>Diode: switching; SMD; 100V; 0.15A; 4ns; 400mW; Package: reel, tape</t>
   </si>
   <si>
     <t>VD1, VD2</t>
   </si>
   <si>
-    <t>1N4148W</t>
-  </si>
-  <si>
     <t>ERJ-3EKF3300V</t>
   </si>
   <si>
@@ -208,6 +181,12 @@
   </si>
   <si>
     <t>LM7805CT/NOPB</t>
+  </si>
+  <si>
+    <t>DMN65D8L-7</t>
+  </si>
+  <si>
+    <t>1N4148W-TP</t>
   </si>
 </sst>
 </file>
@@ -591,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74CCD21-E8D4-4A68-A154-31AE7F41C2DF}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,16 +604,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3">
         <v>4</v>
@@ -668,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -676,10 +655,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -699,10 +678,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -727,50 +706,50 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
@@ -787,128 +766,94 @@
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="3">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="3">
-        <v>2</v>
+      <c r="E15" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="2">
         <v>1</v>
       </c>
     </row>

--- a/pcb/BOM/BOM_SmartSwitch.xlsx
+++ b/pcb/BOM/BOM_SmartSwitch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\GitHub\SmartSwitch\pcb\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F37C99D-E21E-4A4F-87A9-1069EF36EF45}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6825C106-80BE-4085-9EC9-A07BFB496017}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17895" yWindow="4230" windowWidth="21600" windowHeight="11385" xr2:uid="{CEE4390B-974B-40B4-A16B-2C2F562EAE7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEE4390B-974B-40B4-A16B-2C2F562EAE7A}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_PartType-SmartSwitch" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Comment</t>
   </si>
@@ -123,12 +123,6 @@
     <t>ERJ-3EKF1002V</t>
   </si>
   <si>
-    <t>G5RL-K1-E-DC5</t>
-  </si>
-  <si>
-    <t>General Purpose Relay, G5rl-K Series, Power, Latching Dual Coil, Spdt, 5 Vdc, 16 A</t>
-  </si>
-  <si>
     <t>RL</t>
   </si>
   <si>
@@ -162,15 +156,9 @@
     <t>PM5GT</t>
   </si>
   <si>
-    <t>PNL MNT W/ WIRE 568NM 40MCD GRN</t>
-  </si>
-  <si>
     <t>PM5YT</t>
   </si>
   <si>
-    <t>PNL MNT W/ WIRE 590NM 40MCD YLW</t>
-  </si>
-  <si>
     <t>GRS-4022-1600</t>
   </si>
   <si>
@@ -187,13 +175,43 @@
   </si>
   <si>
     <t>1N4148W-TP</t>
+  </si>
+  <si>
+    <t>LED 2.3X7MM GREEN PANEL MOUNT</t>
+  </si>
+  <si>
+    <t>LED 2.3X7MM RED PANEL MOUNT</t>
+  </si>
+  <si>
+    <t>SSI-LXH072GD‎</t>
+  </si>
+  <si>
+    <t>‎SSI-LXH072ID‎</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Extended Price</t>
+  </si>
+  <si>
+    <t>G5RL-K1A-E-DC5</t>
+  </si>
+  <si>
+    <t>General Purpose Relay SPST-NO (1 Form A) 5VDC Coil Through Hole</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +220,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
@@ -246,18 +278,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -570,291 +608,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74CCD21-E8D4-4A68-A154-31AE7F41C2DF}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="B2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F3" s="3">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H11" si="0">G3*F3</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.32</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>6.03</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>6.03</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4.34</v>
+      </c>
+      <c r="H12" s="4">
+        <f>G12*F12</f>
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.54</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" ref="H13:H17" si="1">G13*F13</f>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="G16" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="1"/>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
+      <c r="G17" s="4">
+        <v>1.38</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="4">
+        <f>SUM(H3:H17)</f>
+        <v>21.8</v>
       </c>
     </row>
   </sheetData>
